--- a/Plant_Fed_0.1.xlsx
+++ b/Plant_Fed_0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="v1_test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="v1_test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>Client_carbon_emissions_training</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Server_carbon_emissions_training</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Client_carbon_emissions_aggregation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Server_carbon_emissions_aggregation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data_sent_from_client_to_server</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data_sent_from_server_to_client</t>
         </is>
       </c>
     </row>
@@ -470,90 +495,105 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.466975875336658</v>
+        <v>3.633948451947512</v>
       </c>
       <c r="C2" t="n">
-        <v>57.94569249639769</v>
+        <v>28.82040093158369</v>
       </c>
       <c r="D2" t="n">
-        <v>3.502280569497277</v>
+        <v>3.152698603218901</v>
       </c>
       <c r="E2" t="n">
-        <v>30.34063057394588</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>29.18092386736841</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1294280416537601</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.136760726502493e-06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1075351020</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1075351020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.005194680694238</v>
+        <v>1.903857400610059</v>
       </c>
       <c r="C3" t="n">
-        <v>43.48646163486239</v>
+        <v>43.18671820219373</v>
       </c>
       <c r="D3" t="n">
-        <v>3.797279401666978</v>
+        <v>2.469915923601139</v>
       </c>
       <c r="E3" t="n">
-        <v>21.16176470812629</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>39.82436912216826</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1370379110741344</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.295575536705445e-06</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1075351020</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1075351020</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2.45793591935209</v>
+        <v>1.347803864322456</v>
       </c>
       <c r="C4" t="n">
-        <v>29.99929023211011</v>
+        <v>58.454098530001</v>
       </c>
       <c r="D4" t="n">
-        <v>4.138313035964965</v>
+        <v>1.860288099257532</v>
       </c>
       <c r="E4" t="n">
-        <v>12.48050356640535</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.748738411696799</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22.23207236142479</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.414738995467916</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.74239639001734</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.74683603261568</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.29421218390695</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.414746958227719</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.028297682369457</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>52.31300791437754</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1361170757087951</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.083498277942861e-06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1075351020</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1075351020</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
